--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_189.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_189.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,561 +488,569 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_133</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(7.8, 13.9)]</t>
+          <t>[['D/3', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(11.5, 28.96)]</t>
+          <t>[['C:maj/E', 'G:7', 'C:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(2.56, 6.82)]</t>
+          <t>[('0:01:48.280000', '0:02:00.520000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:00:38.900000', '0:00:47.160000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5833333333333334</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(39.58, 48.9)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(24.76, 34.92)]</t>
+          <t>[('0:00:16.179070', '0:00:21.844739')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>isophonics_124</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3611111111111111</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['F', 'Bb', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(8.2, 30.68)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(32.7, 45.64)]</t>
+          <t>[('0:00:15.124263', '0:00:21.811609')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:55.680000', '0:01:06.100000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(36.28, 38.0)]</t>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:08.080000', '0:00:24.940000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[('0:00:03.820000', '0:00:08.620000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
+          <t>[('0:00:09.600000', '0:00:25.040000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(121.74, 123.78)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(66.98, 83.84)]</t>
+          <t>[('0:01:02.580000', '0:01:09.180000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:01.540000', '0:01:07.900000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_136</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4487804878048781</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(20.08, 23.2)]</t>
+          <t>[['A', 'D/5', 'A', 'D/5']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(7.76, 15.8)]</t>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:00.939000', '0:00:04.875000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G/3', 'C', 'G']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(124.92, 128.84)]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(13.079206, 17.500916)]</t>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:03.820000', '0:00:06.460000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_195</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52), (36.34, 37.98), (9.78, 14.36)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (56.78, 65.58), (1.92, 8.32)]</t>
+          <t>[('0:00:18.380000', '0:01:02.360000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:15.620000', '0:00:58.080000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(16.92, 23.9)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>[('0:01:10.980000', '0:01:27.200000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(3.78, 7.38)]</t>
+          <t>[('0:00:00.280000', '0:01:42.520000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:00.280000', '0:01:43.400000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1046,20 +1059,25 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(3.34, 6.82)]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[('0:00:08.980000', '0:00:20.580000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:11.620000', '0:00:15.600000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
@@ -1068,135 +1086,92 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7556818181818181</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(77.72, 95.68)]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[('0:00:24.520000', '0:00:54.820000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(25.48, 32.8), (74.5, 80.42)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(97.88, 108.98), (47.58, 50.04)]</t>
+          <t>[('0:00:05.700000', '0:00:19.720000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:05.880000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D#:7', 'G#:maj/D#', 'D#:7', 'G#:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(108.54, 120.72)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(84.16, 92.42)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
